--- a/biology/Médecine/Beat_Richner/Beat_Richner.xlsx
+++ b/biology/Médecine/Beat_Richner/Beat_Richner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beat Richner, né le 13 mars 1947 à Zurich et mort le 9 septembre 2018[1], est un pédiatre suisse. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beat Richner, né le 13 mars 1947 à Zurich et mort le 9 septembre 2018, est un pédiatre suisse. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Également violoncelliste (sous le pseudonyme de Beatocello), Beat Richner s'est fait connaître au Cambodge où le roi Norodom Sihanouk et le gouvernement cambodgien lui ont confié en 1992 la mission de remettre en route l'hôpital pédiatrique Kantha Bopha[Note 1] après la chute du régime des Khmers rouges, dont l'instauration avait conduit Richner à fuir le pays en 1975[2].
-Ardent défenseur d'une médecine pédiatrique de qualité, il s'est violemment opposé à l'Organisation mondiale de la santé[3] qui l'a critiqué en qualifiant sa pratique de « médecine de type Rolls Royce dans les pays du Tiers-monde ». Il a été élu « Suisse de l'année » en 2002[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Également violoncelliste (sous le pseudonyme de Beatocello), Beat Richner s'est fait connaître au Cambodge où le roi Norodom Sihanouk et le gouvernement cambodgien lui ont confié en 1992 la mission de remettre en route l'hôpital pédiatrique Kantha Bopha[Note 1] après la chute du régime des Khmers rouges, dont l'instauration avait conduit Richner à fuir le pays en 1975.
+Ardent défenseur d'une médecine pédiatrique de qualité, il s'est violemment opposé à l'Organisation mondiale de la santé qui l'a critiqué en qualifiant sa pratique de « médecine de type Rolls Royce dans les pays du Tiers-monde ». Il a été élu « Suisse de l'année » en 2002.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
